--- a/Esfuerzo de Tareas/Entrega 4/Metricas del Proyecto.xlsx
+++ b/Esfuerzo de Tareas/Entrega 4/Metricas del Proyecto.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analaura.montesdeoca\source\repos\obligatorio-montes-de-oca-rositto-silvera\Esfuerzo de Tareas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D511E5DF-FE35-461C-A342-1BD2D976350D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070815F0-D05C-4F18-A226-F754317BFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="312" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="312" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrega 1" sheetId="1" r:id="rId1"/>
     <sheet name="Entrega 2" sheetId="4" r:id="rId2"/>
     <sheet name="Entrega 3" sheetId="2" r:id="rId3"/>
+    <sheet name="Entrega 4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>Horas</t>
   </si>
@@ -221,6 +222,33 @@
   </si>
   <si>
     <t>Esfuerzo (horas)</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>Bugs 1</t>
+  </si>
+  <si>
+    <t>Bugs 2</t>
+  </si>
+  <si>
+    <t>Feature 2</t>
+  </si>
+  <si>
+    <t>Feature 1</t>
+  </si>
+  <si>
+    <t>Testing Integration - Selenium y Correccion de errores</t>
+  </si>
+  <si>
+    <t>Testing - Selenium y BDD</t>
+  </si>
+  <si>
+    <t>Testng Integration Selenium y grabaciones</t>
   </si>
 </sst>
 </file>
@@ -304,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -448,20 +476,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,18 +529,35 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,10 +776,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -738,28 +795,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -782,10 +839,10 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>2</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <f t="shared" ref="H2:H4" si="0">E2-D2</f>
         <v>6.25E-2</v>
       </c>
@@ -809,10 +866,10 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>3</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <f t="shared" si="0"/>
         <v>8.3333333335758653E-2</v>
       </c>
@@ -836,542 +893,600 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>3</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
         <v>0.16666666666424135</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="15">
+      <c r="B5" s="17"/>
+      <c r="C5" s="14">
         <f>SUM(C2:C4)</f>
         <v>7.5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F6" s="5" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="18">
+      <c r="A6" s="34"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <f>AVERAGE(G2:G4)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H6" s="16">
+        <f>AVERAGE(H2:H4)</f>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5">
-        <f>MAX(G2:G4)</f>
+      <c r="G7" s="41">
+        <f>G6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41">
+        <f>H6</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="41">
+        <f>G8/G7</f>
+        <v>3.9062500000000007E-2</v>
+      </c>
+      <c r="H10" s="43"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5">
-        <f>MAX(H2:H4)</f>
-        <v>0.16666666666424135</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5">
-        <f>G7/G6</f>
-        <v>5.5555555554747116E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="F12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9">
+        <v>45183</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45183</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45183</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E13-D13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
+        <f>E13-D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="9">
         <v>45183</v>
       </c>
-      <c r="C12" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45184</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45184</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F17" si="1">E14-D14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" ref="G14:G17" si="2">E14-B14</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:H17" si="3">E14-D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="9">
         <v>45183</v>
       </c>
-      <c r="E12" s="2">
-        <v>45183</v>
-      </c>
-      <c r="F12" s="1">
-        <f>E12-D12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <f>E12-D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45183</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45184</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45184</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13:F16" si="1">E13-D13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" ref="G13:G16" si="2">E13-B13</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" ref="H13:H16" si="3">E13-D13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="10">
-        <v>45183</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>1.2</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>45184.708333333336</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>45184.770833333336</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="16">
         <f t="shared" si="2"/>
         <v>1.7708333333357587</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="16">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B16" s="9">
         <v>45183</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>1.4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>45185.416666666664</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>45185.5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>8.3333333335758653E-2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="16">
         <f t="shared" si="3"/>
         <v>8.3333333335758653E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B17" s="9">
         <v>45183</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>45185.708333333336</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>45185.875</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>0.16666666666424135</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>2.875</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="16">
         <f t="shared" si="3"/>
         <v>0.16666666666424135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15">
-        <f>SUM(C12:C16)</f>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14">
+        <f>SUM(C13:C17)</f>
         <v>5.5</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="29">
+        <f>AVERAGE(G13:G17)</f>
+        <v>1.8291666666671518</v>
+      </c>
+      <c r="H19" s="5">
+        <f>AVERAGE(H13:H17)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="5">
-        <f>MAX(G12:G16)</f>
-        <v>2.875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F19" s="5" t="s">
+      <c r="G20" s="41">
+        <f>G19</f>
+        <v>1.8291666666671518</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5">
-        <f>MAX(H12:H16)</f>
-        <v>0.16666666666424135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="E21" s="5" t="s">
+      <c r="G21" s="41">
+        <f>H19</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="5">
-        <f>G19/G18</f>
-        <v>5.7971014491910035E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="G23" s="41">
+        <f>G21/G20</f>
+        <v>3.4168564920264287E-2</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="s">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B26" s="9">
         <v>45183</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C26" s="13">
         <v>1.25</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <v>45186</v>
       </c>
-      <c r="F24" s="1">
-        <f>E24-D24</f>
+      <c r="F26" s="1">
+        <f>E26-D26</f>
         <v>0</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G26" s="16">
         <v>1</v>
       </c>
-      <c r="H24" s="17">
-        <f>E24-D24</f>
+      <c r="H26" s="16">
+        <f>E26-D26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="11" t="s">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B27" s="9">
         <v>45183</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C27" s="12">
         <v>2</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="2">
         <v>45186</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" ref="F25:F28" si="4">E25-D25</f>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F30" si="4">E27-D27</f>
         <v>0</v>
       </c>
-      <c r="G25" s="17">
-        <f t="shared" ref="G25:G28" si="5">E25-B25</f>
+      <c r="G27" s="16">
+        <f t="shared" ref="G27:G30" si="5">E27-B27</f>
         <v>3</v>
       </c>
-      <c r="H25" s="17">
-        <f t="shared" ref="H25:H28" si="6">E25-D25</f>
+      <c r="H27" s="16">
+        <f t="shared" ref="H27:H30" si="6">E27-D27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B28" s="9">
         <v>45183</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C28" s="12">
         <v>2.1</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="4">
         <v>45185.770833333336</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="4"/>
         <v>0.77083333333575865</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G28" s="16">
         <f t="shared" si="5"/>
         <v>2.7708333333357587</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H28" s="16">
         <f t="shared" si="6"/>
         <v>0.77083333333575865</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B29" s="9">
         <v>45183</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C29" s="12">
         <v>1.4</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <v>45185.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G29" s="16">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H29" s="16">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="11" t="s">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B30" s="9">
         <v>45183</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C30" s="12">
         <v>1.2</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E30" s="4">
         <v>45185.875</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G30" s="16">
         <f t="shared" si="5"/>
         <v>2.875</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H30" s="16">
         <f t="shared" si="6"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="15" t="s">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="15">
-        <f>SUM(C24:C28)</f>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14">
+        <f>SUM(C26:C30)</f>
         <v>7.95</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F30" s="5" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
+        <f>AVERAGE(G26:G30)</f>
+        <v>2.4291666666671516</v>
+      </c>
+      <c r="H32" s="29">
+        <f>AVERAGE(H26:H30)</f>
+        <v>0.42916666666715175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="5">
-        <f>MAX(G24:G28)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="F31" s="5" t="s">
+      <c r="G33" s="5">
+        <f xml:space="preserve"> G32</f>
+        <v>2.4291666666671516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="5">
-        <f>MAX(H24:H28)</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E33" s="5" t="s">
+      <c r="G34" s="5">
+        <f>H32</f>
+        <v>0.42916666666715175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="5">
-        <f>G31/G30</f>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="24" t="s">
+      <c r="G36" s="5">
+        <f>G34/G33</f>
+        <v>0.17667238421971845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="26" t="s">
+      <c r="B37" s="38"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="27">
-        <f>MAX(G31,G19,G7)</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="26" t="s">
+      <c r="B38" s="24">
+        <f>AVERAGE(G8,G21,G34)</f>
+        <v>0.1986111111112728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="27">
-        <f>MAX(G18,G30,G6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="26" t="s">
+      <c r="B39" s="24">
+        <f>AVERAGE(G7,G20,G33)</f>
+        <v>2.3083333333336569</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="27">
-        <f>B35/B36</f>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="28" t="s">
+      <c r="B40" s="24">
+        <f>B39/B38</f>
+        <v>11.62237762236979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B41" s="26">
         <v>20.92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1380,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA55D808-038A-4C89-9ED3-15E22EDFC837}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1397,131 +1512,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>45192.722222222219</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>45192.722916666666</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>45194.879861111112</v>
       </c>
       <c r="E2" s="1">
         <f>D2-C2</f>
         <v>2.1569444444467081</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f>D2-B2</f>
         <v>2.1576388888934162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>45193</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>45193</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>45194.879861111112</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E11" si="0">D3-C3</f>
         <v>1.8798611111124046</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F11" si="1">D3-B3</f>
         <v>1.8798611111124046</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>45193</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>45193</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>45195</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>45193.84097222222</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>45196.031944444447</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>45196.56527777778</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>0.53333333333284827</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" si="1"/>
         <v>2.7243055555591127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>45193</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>45196.03125</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>45196.554861111108</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>0.52361111110803904</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f t="shared" si="1"/>
         <v>3.554861111108039</v>
       </c>
@@ -1530,183 +1645,197 @@
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>45192.729166666664</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>45192.732638888891</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>45192.854166666664</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>0.12152777777373558</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>45192</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>45194</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>45194</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>45193</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>45196.744444444441</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>45196.765972222223</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>2.1527777782466728E-2</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f t="shared" si="1"/>
         <v>3.765972222223354</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>45193.832638888889</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>45196.011805555558</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>45197</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>0.9881944444423425</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>3.1673611111109494</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>45193</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>45194</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>45195</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18">
-      <c r="E12" s="20" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33">
+        <f>AVERAGE(E2:E11)</f>
+        <v>0.92249999999985444</v>
+      </c>
+      <c r="F12" s="33">
+        <f>AVERAGE(F2:F11)</f>
+        <v>2.3375000000007278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="E13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20">
-        <f>MAX(F2:F11)</f>
-        <v>3.765972222223354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18">
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="19">
+        <f>AVERAGE(F3:F12)</f>
+        <v>2.3554861111114587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5">
-        <f>MAX(E2:E11)</f>
-        <v>2.1569444444467081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" thickBot="1">
-      <c r="E15" s="5" t="s">
+      <c r="F14" s="19">
+        <f>E12</f>
+        <v>0.92249999999985444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" thickBot="1">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
-        <f>F13/F12</f>
-        <v>0.57274571270557373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18">
-      <c r="B16" s="24" t="s">
+      <c r="F16" s="5">
+        <f>F14/F13</f>
+        <v>0.39163890444871441</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18">
+      <c r="B17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75">
-      <c r="B17" s="26" t="s">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C18" s="24">
+        <f>F14</f>
+        <v>0.92249999999985444</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75">
+      <c r="B19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="24">
         <f>F13</f>
-        <v>2.1569444444467081</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75">
-      <c r="B18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="27">
-        <f>F12</f>
-        <v>3.765972222223354</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5" thickBot="1">
-      <c r="B19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="29">
-        <f>C17/C18</f>
-        <v>0.57274571270557373</v>
+        <v>2.3554861111114587</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="16.5" thickBot="1">
       <c r="B20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="26">
+        <f>C18/C19</f>
+        <v>0.39163890444871441</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="16.5" thickBot="1">
+      <c r="B21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C21" s="26">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1717,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFC1955-A3CE-439C-B5DC-D99C55E98B82}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:C26"/>
     </sheetView>
   </sheetViews>
@@ -1733,556 +1862,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>45215</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45227</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>1.59</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f>D2-C2</f>
         <v>6</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <f>D2-B2</f>
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>45215</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45227</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F20" si="0">D3-C3</f>
         <v>6</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <f t="shared" ref="G3:G20" si="1">D3-B3</f>
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>45215</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45223</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>45215</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45223</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.27</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>45215</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45225</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.01</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>45215</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45225</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.13</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>45215</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45225</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.32</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>45215</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45227</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.1</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>45215</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>45227</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>3.09</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>45215</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>45227</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>1.04</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>45215</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45227</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>1.05</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>45215</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>45227</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>1.44</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>45215</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45227</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>2.33</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>45215</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45227</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>1.45</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>45215</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45227</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>4.2300000000000004</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>45215</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45227</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>1.53</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>45215</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45225</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>3.59</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>45215</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45225</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>10.3</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>45215</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45225</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>2.59</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1">
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f>MAX(F2:F20)</f>
         <v>12</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <f>MAX(G2:G20)</f>
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="38"/>
+      <c r="F22" s="35">
+        <f>AVERAGE(F2:F20)</f>
+        <v>6.8421052631578947</v>
+      </c>
+      <c r="G22" s="36">
+        <f>AVERAGE(G2:G20)</f>
+        <v>10.947368421052632</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15.75">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="27">
-        <f>G13</f>
-        <v>12</v>
+      <c r="C23" s="24">
+        <f>F22</f>
+        <v>6.8421052631578947</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="27">
-        <f>G12</f>
-        <v>12</v>
+      <c r="C24" s="24">
+        <f>G22</f>
+        <v>10.947368421052632</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="24">
         <f>C23/C24</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="26">
         <v>39.1</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="30"/>
+      <c r="C33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2291,4 +2428,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D8BE0D-D85E-4D1F-9FCC-122D094C824C}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11">
+        <v>45227</v>
+      </c>
+      <c r="D2" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="F2" s="12">
+        <f>D2-C2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <f t="shared" ref="G2:G8" si="0">D2-B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11">
+        <v>45228</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="F3" s="12">
+        <f>(D3-C3)+1</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <f>(D3-B3)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45228</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E4" s="39">
+        <v>5.5</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F7" si="1">(D4-C4)+1</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G8" si="2">(D4-B4)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="40">
+        <v>45227</v>
+      </c>
+      <c r="C5" s="21">
+        <v>45228</v>
+      </c>
+      <c r="D5" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E5" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="40">
+        <v>45228</v>
+      </c>
+      <c r="C6" s="21">
+        <v>45228</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E6" s="39">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="40">
+        <v>45227</v>
+      </c>
+      <c r="C7" s="21">
+        <v>45228</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="40">
+        <v>45226</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45227</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45228</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <f>(D8-C8)+1</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="F9" s="24">
+        <f>AVERAGE(F2:F8)</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="G9" s="24">
+        <f>AVERAGE(G2:G8)</f>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" thickBot="1"/>
+    <row r="12" spans="1:7" ht="18">
+      <c r="B12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="B13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="24">
+        <f>F9</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="B14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="24">
+        <f>G9</f>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="B15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="24">
+        <f>C13/C14</f>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="26">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Esfuerzo de Tareas/Entrega 4/Metricas del Proyecto.xlsx
+++ b/Esfuerzo de Tareas/Entrega 4/Metricas del Proyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\analaura.montesdeoca\source\repos\obligatorio-montes-de-oca-rositto-silvera\Esfuerzo de Tareas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070815F0-D05C-4F18-A226-F754317BFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728E18A-EF05-4561-AA49-7E3A8C60F3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="312" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrega 1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -543,12 +543,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -556,8 +550,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -936,11 +934,11 @@
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="39">
         <f>G6</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="6"/>
@@ -948,14 +946,14 @@
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <f>H6</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="H9" s="42"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="E10" s="5" t="s">
@@ -964,11 +962,11 @@
       <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <f>G8/G7</f>
         <v>3.9062500000000007E-2</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="E11" s="7"/>
@@ -1180,7 +1178,7 @@
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <f>G19</f>
         <v>1.8291666666671518</v>
       </c>
@@ -1190,7 +1188,7 @@
       <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <f>H19</f>
         <v>6.25E-2</v>
       </c>
@@ -1206,7 +1204,7 @@
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="39">
         <f>G21/G20</f>
         <v>3.4168564920264287E-2</v>
       </c>
@@ -1444,10 +1442,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="41"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="23" t="s">
@@ -1472,8 +1470,8 @@
         <v>37</v>
       </c>
       <c r="B40" s="24">
-        <f>B39/B38</f>
-        <v>11.62237762236979</v>
+        <f>B38/B39</f>
+        <v>8.6040914560828144E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
@@ -1793,10 +1791,10 @@
       </c>
     </row>
     <row r="17" spans="2:3" ht="18">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="2:3" ht="15.75">
       <c r="B18" s="23" t="s">
@@ -2370,10 +2368,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="41"/>
       <c r="F22" s="35">
         <f>AVERAGE(F2:F20)</f>
         <v>6.8421052631578947</v>
@@ -2434,7 +2432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D8BE0D-D85E-4D1F-9FCC-122D094C824C}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:C16"/>
     </sheetView>
   </sheetViews>
@@ -2485,7 +2483,7 @@
       <c r="D2" s="11">
         <v>45228</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="37">
         <v>0.52</v>
       </c>
       <c r="F2" s="12">
@@ -2493,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="16">
-        <f t="shared" ref="G2:G8" si="0">D2-B2</f>
+        <f t="shared" ref="G2" si="0">D2-B2</f>
         <v>1</v>
       </c>
     </row>
@@ -2510,7 +2508,7 @@
       <c r="D3" s="11">
         <v>45228</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="37">
         <v>0.67</v>
       </c>
       <c r="F3" s="12">
@@ -2535,7 +2533,7 @@
       <c r="D4" s="11">
         <v>45228</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="37">
         <v>5.5</v>
       </c>
       <c r="F4" s="12">
@@ -2551,7 +2549,7 @@
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <v>45227</v>
       </c>
       <c r="C5" s="21">
@@ -2560,7 +2558,7 @@
       <c r="D5" s="11">
         <v>45228</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <v>1.5</v>
       </c>
       <c r="F5" s="12">
@@ -2576,7 +2574,7 @@
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>45228</v>
       </c>
       <c r="C6" s="21">
@@ -2585,7 +2583,7 @@
       <c r="D6" s="11">
         <v>45228</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="37">
         <v>2</v>
       </c>
       <c r="F6" s="12">
@@ -2601,7 +2599,7 @@
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>45227</v>
       </c>
       <c r="C7" s="21">
@@ -2626,7 +2624,7 @@
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>45226</v>
       </c>
       <c r="C8" s="21">
@@ -2659,10 +2657,10 @@
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="12" spans="1:7" ht="18">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="B13" s="23" t="s">
